--- a/natmiOut/OldD4/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H2">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I2">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J2">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>2.206211496534693</v>
+        <v>0.144620452494</v>
       </c>
       <c r="R2">
-        <v>2.206211496534693</v>
+        <v>1.301584072446</v>
       </c>
       <c r="S2">
-        <v>0.07523284338662667</v>
+        <v>0.003052459304806501</v>
       </c>
       <c r="T2">
-        <v>0.07523284338662667</v>
+        <v>0.0034481800851789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H3">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I3">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J3">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>3.352717657658495</v>
+        <v>0.09350598401200001</v>
       </c>
       <c r="R3">
-        <v>3.352717657658495</v>
+        <v>0.8415538561080002</v>
       </c>
       <c r="S3">
-        <v>0.1143292394470726</v>
+        <v>0.001973601976970436</v>
       </c>
       <c r="T3">
-        <v>0.1143292394470726</v>
+        <v>0.002229459708879087</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H4">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I4">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J4">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>0.1912283784384373</v>
+        <v>0.005500577401666666</v>
       </c>
       <c r="R4">
-        <v>0.1912283784384373</v>
+        <v>0.049505196615</v>
       </c>
       <c r="S4">
-        <v>0.006520977099763425</v>
+        <v>0.0001160989914080263</v>
       </c>
       <c r="T4">
-        <v>0.006520977099763425</v>
+        <v>0.0001311500629843417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H5">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I5">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J5">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>0.3503053933818691</v>
+        <v>0.01081186914266667</v>
       </c>
       <c r="R5">
-        <v>0.3503053933818691</v>
+        <v>0.09730682228400001</v>
       </c>
       <c r="S5">
-        <v>0.01194557767429999</v>
+        <v>0.0002282027887324746</v>
       </c>
       <c r="T5">
-        <v>0.01194557767429999</v>
+        <v>0.0002577869949815721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.13983443771926</v>
+        <v>0.030331</v>
       </c>
       <c r="H6">
-        <v>1.13983443771926</v>
+        <v>0.090993</v>
       </c>
       <c r="I6">
-        <v>0.236735422740398</v>
+        <v>0.005854802217609369</v>
       </c>
       <c r="J6">
-        <v>0.236735422740398</v>
+        <v>0.006431404745936082</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>0.8418296655716908</v>
+        <v>0.022951922665</v>
       </c>
       <c r="R6">
-        <v>0.8418296655716908</v>
+        <v>0.13771153599</v>
       </c>
       <c r="S6">
-        <v>0.02870678513263535</v>
+        <v>0.0004844391556919317</v>
       </c>
       <c r="T6">
-        <v>0.02870678513263535</v>
+        <v>0.0003648278939121822</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H7">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I7">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J7">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>2.20230248900887</v>
+        <v>5.853246319092</v>
       </c>
       <c r="R7">
-        <v>2.20230248900887</v>
+        <v>52.679216871828</v>
       </c>
       <c r="S7">
-        <v>0.07509954440262206</v>
+        <v>0.1235426655215177</v>
       </c>
       <c r="T7">
-        <v>0.07509954440262206</v>
+        <v>0.1395587349028457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H8">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I8">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J8">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>3.346777248692115</v>
+        <v>3.784482397149334</v>
       </c>
       <c r="R8">
-        <v>3.346777248692115</v>
+        <v>34.060341574344</v>
       </c>
       <c r="S8">
-        <v>0.11412666872431</v>
+        <v>0.07987790321382217</v>
       </c>
       <c r="T8">
-        <v>0.11412666872431</v>
+        <v>0.09023327343759925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H9">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I9">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J9">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>0.1908895563573989</v>
+        <v>0.2226257342855556</v>
       </c>
       <c r="R9">
-        <v>0.1908895563573989</v>
+        <v>2.00363160857</v>
       </c>
       <c r="S9">
-        <v>0.006509423108408231</v>
+        <v>0.004698892738822797</v>
       </c>
       <c r="T9">
-        <v>0.006509423108408231</v>
+        <v>0.005308057125900849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H10">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I10">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J10">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>0.3496847156176489</v>
+        <v>0.4375904802568889</v>
       </c>
       <c r="R10">
-        <v>0.3496847156176489</v>
+        <v>3.938314322312</v>
       </c>
       <c r="S10">
-        <v>0.01192441227238704</v>
+        <v>0.009236087359153456</v>
       </c>
       <c r="T10">
-        <v>0.01192441227238704</v>
+        <v>0.0104334535915539</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.13781485736523</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H11">
-        <v>1.13781485736523</v>
+        <v>3.682774</v>
       </c>
       <c r="I11">
-        <v>0.2363159704120177</v>
+        <v>0.2369623309722081</v>
       </c>
       <c r="J11">
-        <v>0.2363159704120177</v>
+        <v>0.2602992557868188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>0.8403380957456115</v>
+        <v>0.9289367758033334</v>
       </c>
       <c r="R11">
-        <v>0.8403380957456115</v>
+        <v>5.573620654820001</v>
       </c>
       <c r="S11">
-        <v>0.02865592190429033</v>
+        <v>0.01960678213889198</v>
       </c>
       <c r="T11">
-        <v>0.02865592190429033</v>
+        <v>0.01476573672891918</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H12">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I12">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J12">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>2.233291573697275</v>
+        <v>6.364156573697999</v>
       </c>
       <c r="R12">
-        <v>2.233291573697275</v>
+        <v>57.27740916328199</v>
       </c>
       <c r="S12">
-        <v>0.07615628667720435</v>
+        <v>0.1343262907536255</v>
       </c>
       <c r="T12">
-        <v>0.07615628667720435</v>
+        <v>0.1517403491549459</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H13">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I13">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J13">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>3.393870490474547</v>
+        <v>4.114817182270667</v>
       </c>
       <c r="R13">
-        <v>3.393870490474547</v>
+        <v>37.033354640436</v>
       </c>
       <c r="S13">
-        <v>0.1157325702841338</v>
+        <v>0.08685017768230859</v>
       </c>
       <c r="T13">
-        <v>0.1157325702841338</v>
+        <v>0.09810943346789987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H14">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I14">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J14">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>0.1935756054617404</v>
+        <v>0.2420579885227777</v>
       </c>
       <c r="R14">
-        <v>0.1935756054617404</v>
+        <v>2.178521896705</v>
       </c>
       <c r="S14">
-        <v>0.006601018638534477</v>
+        <v>0.005109043338111202</v>
       </c>
       <c r="T14">
-        <v>0.006601018638534477</v>
+        <v>0.005771379642981916</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H15">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I15">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J15">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>0.3546052064769191</v>
+        <v>0.4757862867364444</v>
       </c>
       <c r="R15">
-        <v>0.3546052064769191</v>
+        <v>4.282076580628</v>
       </c>
       <c r="S15">
-        <v>0.01209220331090816</v>
+        <v>0.01004227447088265</v>
       </c>
       <c r="T15">
-        <v>0.01209220331090816</v>
+        <v>0.0113441547888525</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.15382530150294</v>
+        <v>1.334743666666667</v>
       </c>
       <c r="H16">
-        <v>1.15382530150294</v>
+        <v>4.004231</v>
       </c>
       <c r="I16">
-        <v>0.2396412246206783</v>
+        <v>0.2576459786864944</v>
       </c>
       <c r="J16">
-        <v>0.2396412246206783</v>
+        <v>0.2830199054567316</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N16">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O16">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P16">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q16">
-        <v>0.8521626786745774</v>
+        <v>1.010020553721667</v>
       </c>
       <c r="R16">
-        <v>0.8521626786745774</v>
+        <v>6.06012332233</v>
       </c>
       <c r="S16">
-        <v>0.02905914570989753</v>
+        <v>0.02131819244156649</v>
       </c>
       <c r="T16">
-        <v>0.02905914570989753</v>
+        <v>0.01605458840205149</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.38332846298339</v>
+        <v>1.194497666666667</v>
       </c>
       <c r="H17">
-        <v>1.38332846298339</v>
+        <v>3.583493</v>
       </c>
       <c r="I17">
-        <v>0.287307382226906</v>
+        <v>0.2305742503619801</v>
       </c>
       <c r="J17">
-        <v>0.287307382226906</v>
+        <v>0.2532820534242055</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N17">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O17">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P17">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q17">
-        <v>2.677507414694646</v>
+        <v>5.695453267493999</v>
       </c>
       <c r="R17">
-        <v>2.677507414694646</v>
+        <v>51.259079407446</v>
       </c>
       <c r="S17">
-        <v>0.09130425451623801</v>
+        <v>0.1202121762284897</v>
       </c>
       <c r="T17">
-        <v>0.09130425451623801</v>
+        <v>0.1357964810257711</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.38332846298339</v>
+        <v>1.194497666666667</v>
       </c>
       <c r="H18">
-        <v>1.38332846298339</v>
+        <v>3.583493</v>
       </c>
       <c r="I18">
-        <v>0.287307382226906</v>
+        <v>0.2305742503619801</v>
       </c>
       <c r="J18">
-        <v>0.287307382226906</v>
+        <v>0.2532820534242055</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N18">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P18">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q18">
-        <v>4.068932829811824</v>
+        <v>3.682459520678667</v>
       </c>
       <c r="R18">
-        <v>4.068932829811824</v>
+        <v>33.142135686108</v>
       </c>
       <c r="S18">
-        <v>0.1387525116321607</v>
+        <v>0.07772453781345509</v>
       </c>
       <c r="T18">
-        <v>0.1387525116321607</v>
+        <v>0.08780074577769986</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.38332846298339</v>
+        <v>1.194497666666667</v>
       </c>
       <c r="H19">
-        <v>1.38332846298339</v>
+        <v>3.583493</v>
       </c>
       <c r="I19">
-        <v>0.287307382226906</v>
+        <v>0.2305742503619801</v>
       </c>
       <c r="J19">
-        <v>0.287307382226906</v>
+        <v>0.2532820534242055</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N19">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O19">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P19">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q19">
-        <v>0.2320790196103931</v>
+        <v>0.2166241426794444</v>
       </c>
       <c r="R19">
-        <v>0.2320790196103931</v>
+        <v>1.949617284115</v>
       </c>
       <c r="S19">
-        <v>0.007914003060493072</v>
+        <v>0.004572218995062504</v>
       </c>
       <c r="T19">
-        <v>0.007914003060493072</v>
+        <v>0.005164961399821388</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.38332846298339</v>
+        <v>1.194497666666667</v>
       </c>
       <c r="H20">
-        <v>1.38332846298339</v>
+        <v>3.583493</v>
       </c>
       <c r="I20">
-        <v>0.287307382226906</v>
+        <v>0.2305742503619801</v>
       </c>
       <c r="J20">
-        <v>0.287307382226906</v>
+        <v>0.2532820534242055</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N20">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O20">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P20">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q20">
-        <v>0.4251384283241722</v>
+        <v>0.4257938235871111</v>
       </c>
       <c r="R20">
-        <v>0.4251384283241722</v>
+        <v>3.832144412284</v>
       </c>
       <c r="S20">
-        <v>0.01449741914861157</v>
+        <v>0.008987098963692828</v>
       </c>
       <c r="T20">
-        <v>0.01449741914861157</v>
+        <v>0.01015218634408689</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.194497666666667</v>
+      </c>
+      <c r="H21">
+        <v>3.583493</v>
+      </c>
+      <c r="I21">
+        <v>0.2305742503619801</v>
+      </c>
+      <c r="J21">
+        <v>0.2532820534242055</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.756715</v>
+      </c>
+      <c r="N21">
+        <v>1.51343</v>
+      </c>
+      <c r="O21">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P21">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q21">
+        <v>0.9038943018316667</v>
+      </c>
+      <c r="R21">
+        <v>5.42336581099</v>
+      </c>
+      <c r="S21">
+        <v>0.01907821836127996</v>
+      </c>
+      <c r="T21">
+        <v>0.01436767887682621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.39337</v>
+      </c>
+      <c r="H22">
+        <v>2.78674</v>
+      </c>
+      <c r="I22">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J22">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.768073999999999</v>
+      </c>
+      <c r="N22">
+        <v>14.304222</v>
+      </c>
+      <c r="O22">
+        <v>0.5213599352042468</v>
+      </c>
+      <c r="P22">
+        <v>0.5361472681932758</v>
+      </c>
+      <c r="Q22">
+        <v>6.64369126938</v>
+      </c>
+      <c r="R22">
+        <v>39.86214761628</v>
+      </c>
+      <c r="S22">
+        <v>0.1402263433958074</v>
+      </c>
+      <c r="T22">
+        <v>0.1056035230245343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.39337</v>
+      </c>
+      <c r="H23">
+        <v>2.78674</v>
+      </c>
+      <c r="I23">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J23">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.082852</v>
+      </c>
+      <c r="N23">
+        <v>9.248556000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.3370911439219029</v>
+      </c>
+      <c r="P23">
+        <v>0.3466520607784562</v>
+      </c>
+      <c r="Q23">
+        <v>4.295553491240001</v>
+      </c>
+      <c r="R23">
+        <v>25.77332094744</v>
+      </c>
+      <c r="S23">
+        <v>0.09066492323534656</v>
+      </c>
+      <c r="T23">
+        <v>0.06827914838637814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.39337</v>
+      </c>
+      <c r="H24">
+        <v>2.78674</v>
+      </c>
+      <c r="I24">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J24">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1813516666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.544055</v>
+      </c>
+      <c r="O24">
+        <v>0.01982970339439268</v>
+      </c>
+      <c r="P24">
+        <v>0.02039213331538707</v>
+      </c>
+      <c r="Q24">
+        <v>0.2526899717833333</v>
+      </c>
+      <c r="R24">
+        <v>1.5161398307</v>
+      </c>
+      <c r="S24">
+        <v>0.005333449330988151</v>
+      </c>
+      <c r="T24">
+        <v>0.004016585083698574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.38332846298339</v>
-      </c>
-      <c r="H21">
-        <v>1.38332846298339</v>
-      </c>
-      <c r="I21">
-        <v>0.287307382226906</v>
-      </c>
-      <c r="J21">
-        <v>0.287307382226906</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.738554335361319</v>
-      </c>
-      <c r="N21">
-        <v>0.738554335361319</v>
-      </c>
-      <c r="O21">
-        <v>0.1212610466162259</v>
-      </c>
-      <c r="P21">
-        <v>0.1212610466162259</v>
-      </c>
-      <c r="Q21">
-        <v>1.021663233565093</v>
-      </c>
-      <c r="R21">
-        <v>1.021663233565093</v>
-      </c>
-      <c r="S21">
-        <v>0.03483919386940268</v>
-      </c>
-      <c r="T21">
-        <v>0.03483919386940268</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.39337</v>
+      </c>
+      <c r="H25">
+        <v>2.78674</v>
+      </c>
+      <c r="I25">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J25">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3564626666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.069388</v>
+      </c>
+      <c r="O25">
+        <v>0.0389770277885927</v>
+      </c>
+      <c r="P25">
+        <v>0.04008253331349799</v>
+      </c>
+      <c r="Q25">
+        <v>0.4966843858533333</v>
+      </c>
+      <c r="R25">
+        <v>2.98010631512</v>
+      </c>
+      <c r="S25">
+        <v>0.01048336420613129</v>
+      </c>
+      <c r="T25">
+        <v>0.007894951594023125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.39337</v>
+      </c>
+      <c r="H26">
+        <v>2.78674</v>
+      </c>
+      <c r="I26">
+        <v>0.268962637761708</v>
+      </c>
+      <c r="J26">
+        <v>0.1969673805863079</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.756715</v>
+      </c>
+      <c r="N26">
+        <v>1.51343</v>
+      </c>
+      <c r="O26">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P26">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q26">
+        <v>1.05438397955</v>
+      </c>
+      <c r="R26">
+        <v>4.2175359182</v>
+      </c>
+      <c r="S26">
+        <v>0.02225455759343467</v>
+      </c>
+      <c r="T26">
+        <v>0.01117317249767383</v>
       </c>
     </row>
   </sheetData>
